--- a/Femto Project 확인 사항 list.xlsx
+++ b/Femto Project 확인 사항 list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Pipette" sheetId="3" r:id="rId1"/>
@@ -15,16 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -61,10 +57,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>S/V 부자재 구매 - Gasket, 12'' Wire lead, Screw</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,24 +73,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X-Valve 구매 - X605SF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Closed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Battery size 확정 - 디자인 업체 inform 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery Connector 디자인 적용 여부 확인 필요
- - 부품 : 824-22-003-00-005000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer 부품 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -164,6 +143,39 @@
   </si>
   <si>
     <t>Response</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery Connector 디자인 적용 여부 확인 필요
+ - 부품 : 824-22-003-00-005000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-Valve 구매 - X605SF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer 부품 - 10ea</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,6 +484,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -794,7 +821,8 @@
     <col min="2" max="2" width="6.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
     <col min="8" max="8" width="60.875" style="4" customWidth="1"/>
     <col min="9" max="9" width="53.875" style="4" customWidth="1"/>
@@ -807,25 +835,25 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -833,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="17">
         <v>43193</v>
@@ -845,13 +873,13 @@
         <v>43206</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -859,20 +887,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E7" s="7">
         <v>43193</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -881,20 +909,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E8" s="7">
         <v>43193</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="9"/>
     </row>
@@ -903,20 +931,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E9" s="7">
         <v>43193</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
     </row>
@@ -925,20 +953,20 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7">
         <v>43193</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -947,20 +975,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="7">
         <v>43236</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I11" s="9"/>
     </row>
@@ -969,20 +997,20 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
         <v>43236</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
     </row>
@@ -991,20 +1019,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E13" s="7">
         <v>43236</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -1222,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1260,8 @@
     <col min="2" max="2" width="6.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
     <col min="8" max="8" width="55.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59.375" style="4" customWidth="1"/>
@@ -1245,25 +1274,25 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -1271,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23">
@@ -1279,10 +1308,10 @@
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I6" s="24"/>
     </row>
@@ -1291,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7">
@@ -1299,10 +1328,10 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -1311,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="7">
@@ -1319,39 +1348,43 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="27">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29">
+        <v>43236</v>
+      </c>
+      <c r="F9" s="29">
+        <v>43236</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7">
-        <v>43236</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="31" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="20">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="7">
@@ -1359,33 +1392,37 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="I10" s="9"/>
       <c r="M10"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
+      <c r="B11" s="27">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7">
+      <c r="C11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29">
         <v>43236</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="29">
+        <v>43236</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="9"/>
       <c r="M11"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -1393,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="7">
@@ -1401,32 +1438,36 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="27">
+        <v>8</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29">
+        <v>43236</v>
+      </c>
+      <c r="F13" s="29">
+        <v>43236</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7">
-        <v>43236</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="20">

--- a/Femto Project 확인 사항 list.xlsx
+++ b/Femto Project 확인 사항 list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>V1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Closed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,6 +172,47 @@
   </si>
   <si>
     <t>Transformer 부품 - 10ea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 불가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch Program으로 구별
+ - 각 power별 개별 Program이 있음 : 입력에서 제한을 둠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5/17 Femto] - 내부 검토 후 confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5/17 Femto] - M/E 업체에 확인 후 confirm 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5/17 Femto] - Connector 구매 후 전달 예정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -405,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,6 +542,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,7 +879,7 @@
   <dimension ref="B4:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -841,10 +908,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
@@ -879,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -902,7 +969,9 @@
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="20">
@@ -990,7 +1059,9 @@
       <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="20">
@@ -1010,9 +1081,11 @@
         <v>4</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="20">
@@ -1032,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -1251,7 +1324,7 @@
   <dimension ref="B4:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1280,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
@@ -1302,7 +1375,9 @@
       <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="23">
         <v>43236</v>
       </c>
@@ -1316,24 +1391,30 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="20">
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7">
+      <c r="D7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="29">
         <v>43236</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="29">
+        <v>43237</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="38" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B8" s="20">
@@ -1342,7 +1423,9 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="7">
         <v>43236</v>
       </c>
@@ -1353,7 +1436,9 @@
       <c r="H8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="39" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
@@ -1362,7 +1447,9 @@
       <c r="C9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="29">
         <v>43236</v>
       </c>
@@ -1370,7 +1457,7 @@
         <v>43236</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>27</v>
@@ -1380,93 +1467,109 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
+      <c r="B10" s="27">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7">
+      <c r="D10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="29">
         <v>43236</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="29">
+        <v>43236</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="31" t="s">
+        <v>38</v>
+      </c>
       <c r="M10"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="27">
+      <c r="B11" s="32">
         <v>6</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29">
+      <c r="D11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="34">
         <v>43236</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="34">
         <v>43236</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>32</v>
+      <c r="I11" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="M11"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
+      <c r="B12" s="27">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7">
+      <c r="D12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="29">
         <v>43236</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="29">
+        <v>43236</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="31" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="27">
+      <c r="B13" s="32">
         <v>8</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29">
+      <c r="D13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="34">
         <v>43236</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="34">
         <v>43236</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>32</v>
+      <c r="I13" s="36" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">

--- a/Femto Project 확인 사항 list.xlsx
+++ b/Femto Project 확인 사항 list.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pipette" sheetId="3" r:id="rId1"/>
     <sheet name="LF Gen" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,6 +213,31 @@
   </si>
   <si>
     <t>[5/17 Femto] - Connector 구매 후 전달 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gen Main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gen Main 부품 요청 - 5ea 기준
+Gen Main bare PCB 요청 - 2ea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5/17 Femto] - No molding 8ea 입고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molding된 Transformer 요청 - 각 2ea씩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -878,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1088,37 +1113,49 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
+      <c r="B13" s="27">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="29">
         <v>43236</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="31" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="20">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43243</v>
+      </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1323,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1572,16 +1609,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="20">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43243</v>
+      </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">

--- a/Femto Project 확인 사항 list.xlsx
+++ b/Femto Project 확인 사항 list.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Pipette" sheetId="3" r:id="rId1"/>
     <sheet name="LF Gen" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[5/17 Femto] - 내부 검토 후 confirm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[5/17 Femto] - M/E 업체에 확인 후 confirm 예정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -238,6 +234,20 @@
   </si>
   <si>
     <t>Molding된 Transformer 요청 - 각 2ea씩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[5/17 Femto] - 내부 검토 후 confirm
+[5/24 Femto] - OS는 Win7으로 변경
+                     Touch PC : 저가 PC로 알아보고 inform 주기로 함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF 전체에 대한 Data 요청 - BOM, Block diagram(조립도)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +600,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -1085,7 +1095,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
@@ -1109,7 +1119,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -1127,13 +1137,13 @@
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -1154,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -1361,7 +1371,7 @@
   <dimension ref="B4:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1474,7 +1484,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -1614,10 +1624,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E14" s="7">
         <v>43243</v>
@@ -1627,7 +1637,7 @@
         <v>22</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -1635,12 +1645,22 @@
       <c r="B15" s="20">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7">
+        <v>43244</v>
+      </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
